--- a/extra_addons/customaddons-main/gps_ats/reports/reporte_compras.xlsx
+++ b/extra_addons/customaddons-main/gps_ats/reports/reporte_compras.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\digit\Documents\Odoo\Odoo16\extra_addons\customaddons-main\gps_ats\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Operador\Documents\Odoo16\addons\customaddons-main\gps_ats\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4700AD-75BF-45B2-8EEB-68A4C3E9AE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFC9AA1-9652-4BF1-AF89-9BD8619A4E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t># LINEAS:</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t># Sustento Trib.</t>
+  </si>
+  <si>
+    <t>Referencia</t>
   </si>
 </sst>
 </file>
@@ -190,37 +193,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -240,9 +242,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -280,7 +282,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -386,7 +388,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -528,7 +530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -536,125 +538,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" style="8"/>
-    <col min="2" max="2" width="23.77734375" style="12"/>
-    <col min="3" max="4" width="23.77734375" style="8"/>
-    <col min="5" max="7" width="23.77734375" style="9"/>
-    <col min="8" max="9" width="23.77734375" style="8"/>
-    <col min="10" max="10" width="23.77734375" style="9"/>
-    <col min="11" max="11" width="23.77734375" style="8"/>
-    <col min="12" max="12" width="23.77734375" style="9"/>
-    <col min="13" max="16384" width="23.77734375" style="8"/>
+    <col min="2" max="2" width="23.77734375" style="9"/>
+    <col min="5" max="7" width="23.77734375" style="6"/>
+    <col min="10" max="10" width="23.77734375" style="6"/>
+    <col min="12" max="12" width="23.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="29.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="29.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="L1" s="3"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="8" t="s">
         <v>21</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
